--- a/Demo Check Sheets Sem 1 2023 - CS385 - November.xlsx
+++ b/Demo Check Sheets Sem 1 2023 - CS385 - November.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87640df3a52f65c7/桌面/CS385/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{B3488FB2-E75B-457A-9470-46AB8CD07183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E156BEA-A19A-4EAE-884F-23B11D4D4DA1}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{970EE449-A20A-4EE9-8795-763D442DE35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BFA6162-E04C-407C-9046-077A97320FE0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F1942D9-F983-48F5-880A-95F4330D1B0C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
   <si>
     <t xml:space="preserve">Module Code: </t>
   </si>
@@ -198,11 +198,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>09/12/23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16/12/23</t>
+    <t>08/12/23</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1444,10 +1440,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1748,7 +1740,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1807,10 +1799,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="7">
@@ -1834,10 +1826,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="9">
@@ -1861,10 +1853,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="9">
@@ -1888,10 +1880,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="9">
@@ -1933,9 +1925,7 @@
       <c r="I7" s="17">
         <v>5</v>
       </c>
-      <c r="J7" s="89" t="s">
-        <v>50</v>
-      </c>
+      <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" thickBot="1">
       <c r="A8" s="8"/>
@@ -2266,7 +2256,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2463,7 +2453,7 @@
       </c>
       <c r="B4" s="9">
         <f>SUM(H4,N4,T4,Z4,AF4)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="51"/>
@@ -2491,19 +2481,23 @@
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
-      <c r="S4" s="52"/>
+      <c r="S4" s="52">
+        <v>2</v>
+      </c>
       <c r="T4" s="36">
         <f>SUM(O4:S4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4" s="59"/>
       <c r="V4" s="51"/>
       <c r="W4" s="51"/>
       <c r="X4" s="51"/>
-      <c r="Y4" s="52"/>
+      <c r="Y4" s="52">
+        <v>2</v>
+      </c>
       <c r="Z4" s="36">
         <f>SUM(U4:Y4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="59"/>
       <c r="AB4" s="51"/>
@@ -2521,7 +2515,7 @@
       </c>
       <c r="B5" s="9">
         <f>SUM(H5,N5,T5,Z5,AF5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="54"/>
@@ -2549,19 +2543,23 @@
       <c r="P5" s="54"/>
       <c r="Q5" s="54"/>
       <c r="R5" s="54"/>
-      <c r="S5" s="55"/>
+      <c r="S5" s="55">
+        <v>2</v>
+      </c>
       <c r="T5" s="9">
         <f t="shared" ref="T5:T23" si="2">SUM(O5:S5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" s="60"/>
       <c r="V5" s="54"/>
       <c r="W5" s="54"/>
       <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
+      <c r="Y5" s="55">
+        <v>2</v>
+      </c>
       <c r="Z5" s="9">
         <f t="shared" ref="Z5:Z23" si="3">SUM(U5:Y5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="60"/>
       <c r="AB5" s="54"/>
@@ -2579,7 +2577,7 @@
       </c>
       <c r="B6" s="9">
         <f>SUM(H6,N6,T6,Z6,AF6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54"/>
@@ -2607,16 +2605,20 @@
       <c r="P6" s="54"/>
       <c r="Q6" s="54"/>
       <c r="R6" s="54"/>
-      <c r="S6" s="55"/>
+      <c r="S6" s="55">
+        <v>1</v>
+      </c>
       <c r="T6" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="60"/>
       <c r="V6" s="54"/>
       <c r="W6" s="54"/>
       <c r="X6" s="54"/>
-      <c r="Y6" s="55"/>
+      <c r="Y6" s="55">
+        <v>0</v>
+      </c>
       <c r="Z6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2637,7 +2639,7 @@
       </c>
       <c r="B7" s="9">
         <f t="shared" ref="B7:B23" si="5">SUM(H7,N7,T7,Z7,AF7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54"/>
@@ -2665,19 +2667,23 @@
       <c r="P7" s="54"/>
       <c r="Q7" s="54"/>
       <c r="R7" s="54"/>
-      <c r="S7" s="55"/>
+      <c r="S7" s="55">
+        <v>1</v>
+      </c>
       <c r="T7" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="60"/>
       <c r="V7" s="54"/>
       <c r="W7" s="54"/>
       <c r="X7" s="54"/>
-      <c r="Y7" s="55"/>
+      <c r="Y7" s="55">
+        <v>1</v>
+      </c>
       <c r="Z7" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="60"/>
       <c r="AB7" s="54"/>
